--- a/HLA_package_list.xlsx
+++ b/HLA_package_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhengqi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086932D0-7E32-E64E-9241-B6E61854D576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A466DAD5-F81A-CD4D-AD84-5E86151E2A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="31680" windowHeight="19620" xr2:uid="{9DB9146C-F81F-FD4A-90FD-E6BCE5EF1F4C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$67</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,16 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="22">
   <si>
     <t>HLA-HD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpecHLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Typing_package</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +116,13 @@
   </si>
   <si>
     <t>v3.58.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1K</t>
+  </si>
+  <si>
+    <t>T1K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,53 +518,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B34270-11C9-544B-9275-A51A1202ED93}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -569,10 +572,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -580,10 +583,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -591,10 +594,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -602,10 +605,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -613,10 +616,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -624,10 +627,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -635,10 +638,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -646,10 +649,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -657,10 +660,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -668,10 +671,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -679,362 +682,384 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1"/>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="1"/>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1"/>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
